--- a/src/main/webapp/resources/员工模板.xlsx
+++ b/src/main/webapp/resources/员工模板.xlsx
@@ -22,194 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工号(*)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>性别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所在部门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工种</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来本单位时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在岗状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾姓名</t>
   </si>
   <si>
@@ -402,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>340321199112262099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安装队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,7 +234,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>340321199112253098</t>
+    <t>342321193312253098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>341321195412262099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来本单位时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岗状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +631,7 @@
   <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -823,236 +671,236 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
